--- a/StoryBreakdown.xlsx
+++ b/StoryBreakdown.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -660,6 +660,9 @@
   </si>
   <si>
     <t xml:space="preserve">XXXIw2. Married hero loses his wife, resumed marriage as result of quest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dramatis Personae</t>
   </si>
 </sst>
 </file>
@@ -849,10 +852,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A178"/>
+  <dimension ref="A1:A180"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A173" activeCellId="0" sqref="A173:A178"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A184" activeCellId="0" sqref="A184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65"/>
@@ -1749,6 +1752,11 @@
     <row r="178" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1770,7 +1778,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A173:A178 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1799,7 +1807,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A173:A178 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/StoryBreakdown.xlsx
+++ b/StoryBreakdown.xlsx
@@ -22,45 +22,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="210">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
   <si>
+    <t xml:space="preserve">Guinea_Fowl_Child_COW1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A_Girl_Who_Lived_In_A_Cave_COW2</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATU Class</t>
   </si>
   <si>
+    <t xml:space="preserve">150-199 Wild Animals and Humans </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 850-999 REALISTIC TALES</t>
+  </si>
+  <si>
     <t xml:space="preserve">Origin</t>
   </si>
   <si>
+    <t xml:space="preserve">Ndebele</t>
+  </si>
+  <si>
     <t xml:space="preserve">Key</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">β</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. Absentation</t>
-    </r>
+    <t xml:space="preserve">GFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Squence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ßAC↑HIK↓W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">βγδε1ζ1η3θA17B7HI5K10↓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iβ. Absentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pitipiti’s husband married another wife. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The girl could not believe that the family would be leaving the place where they had lived for so long […]</t>
   </si>
   <si>
     <t xml:space="preserve">Iβ1. Absention of elders</t>
@@ -78,29 +90,19 @@
     <t xml:space="preserve">IIy1. Interdiction</t>
   </si>
   <si>
+    <t xml:space="preserve">The girl’s mother pleaded with her to go, […]</t>
+  </si>
+  <si>
     <t xml:space="preserve">IIy2. Order or Command</t>
   </si>
   <si>
     <t xml:space="preserve">IIIδ. Violation</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">III</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">δ1. Interdiction Violated</t>
-    </r>
+    <t xml:space="preserve">IIIδ1. Interdiction Violated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[…] but the girl refused. </t>
   </si>
   <si>
     <t xml:space="preserve">IIIδ2. Order or command carried out</t>
@@ -112,6 +114,9 @@
     <t xml:space="preserve">IVε1. Reconnaissance by the villain to obtain information about the hero</t>
   </si>
   <si>
+    <t xml:space="preserve">As he did so, he had a strange feeling – as if there was somebody watching him. </t>
+  </si>
+  <si>
     <t xml:space="preserve">IVε2. Reconnaissance by the hero to obtain information about the villain</t>
   </si>
   <si>
@@ -121,23 +126,10 @@
     <t xml:space="preserve">Vζ. Delivery</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ζ1. Villain receives information about the hero</t>
-    </r>
+    <t xml:space="preserve">Vζ1. Villain receives information about the hero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now he had heard the boy singing the special song to his sister in the cave and he had remembered the song. </t>
   </si>
   <si>
     <t xml:space="preserve">Vζ2. Hero receives information about the villain</t>
@@ -149,23 +141,7 @@
     <t xml:space="preserve">Viη. Trickery</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">VI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">η1. Persuation</t>
-    </r>
+    <t xml:space="preserve">VIη1. Persuation</t>
   </si>
   <si>
     <t xml:space="preserve">VIη2. Direct application of magic</t>
@@ -174,53 +150,30 @@
     <t xml:space="preserve">VIη3. Deception or coercion</t>
   </si>
   <si>
+    <t xml:space="preserve">Then, when the stones where red hot, he put them in his mouth and let them lie against that part of his throat that made the sound. […] The stones had done what he had hope they would do and his voice was now as soft as the boy’s- </t>
+  </si>
+  <si>
     <t xml:space="preserve">VIIθ. Complicity</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">VII</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">θ1. Hero agrees to all the persuasions</t>
-    </r>
+    <t xml:space="preserve">VIIθ1. Hero agrees to all the persuasions</t>
   </si>
   <si>
     <t xml:space="preserve">VIIθ2. Hero mechanically reacts to the employment of magical or other means</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">VII</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">λ. Preliminary misfortune caused by a deceitful agreement</t>
-    </r>
+    <t xml:space="preserve">VIIλ. Preliminary misfortune caused by a deceitful agreement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“I am coming my brother,” the girl sang out. “The rock will move back and let you in.” </t>
   </si>
   <si>
     <t xml:space="preserve">VIIIA. Villainy</t>
   </si>
   <si>
+    <t xml:space="preserve">She would pass by Pitipiti’s fields and jeer at her, asking her why she grew crops if she had no mouths to feed.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VIIIA1. Abduction</t>
   </si>
   <si>
@@ -278,6 +231,9 @@
     <t xml:space="preserve">VIIIA17. Villain makes a threat of cannibalism</t>
   </si>
   <si>
+    <t xml:space="preserve">The cannibal, though, was too quick and had seized her before she could seal off the cave mouth.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VIIIA17a. Cannibalism among relatives</t>
   </si>
   <si>
@@ -332,10 +288,19 @@
     <t xml:space="preserve">IXB7. A lament is sung</t>
   </si>
   <si>
-    <t xml:space="preserve">XC. Beginning counteration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XI. Departure</t>
+    <t xml:space="preserve">Now he was hiding in the grass, listening to the sad song of his sister. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X. C Beginning counteration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He was not going to have his mother insulted in this way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XI. ↑ Departure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[…] and the following day he arose early and flew to the highest tree that overlooked the fields of the new wife. </t>
   </si>
   <si>
     <t xml:space="preserve">XIID. The first function of the donor</t>
@@ -461,6 +426,12 @@
     <t xml:space="preserve">XVIH. Struggle</t>
   </si>
   <si>
+    <t xml:space="preserve">Shouting with anger, she ran out into the fields and killed Pitipiti’s guinea fowl and his friends. Then she took them back to her hut, plucked out her feathers, and began to cook them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When he saw the cannibal bending over his fire, the boy rushed forward and pushed him into the flames. </t>
+  </si>
+  <si>
     <t xml:space="preserve">XVIH1. They fight in an open field</t>
   </si>
   <si>
@@ -503,10 +474,19 @@
     <t xml:space="preserve">XVIII I5. He is killed without a preliminary fight</t>
   </si>
   <si>
+    <t xml:space="preserve">This, of course, frightened the couple and they immediately seized long knives and stabbed at their stomachs to stop the noise.  As the knives pierced their skins, bright blood flowed freely and they fell to the ground. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The many skins which the cannibal was wearing soon caught fire and he ran wildly away, letting out strange cries as he ran.</t>
+  </si>
+  <si>
     <t xml:space="preserve">XVIII I6. He is banished directly</t>
   </si>
   <si>
-    <t xml:space="preserve">XIXK. Liquidation of misfortune or lack</t>
+    <t xml:space="preserve">XIX K. Liquidation of misfortune or lack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As they fell, from out of the wounds came the guinea fowl and his friends, crackling with joy at their freedom. </t>
   </si>
   <si>
     <t xml:space="preserve">XIXK1. Object is seized by force or cleverness</t>
@@ -539,15 +519,24 @@
     <t xml:space="preserve">XIXK10. A captive is freed</t>
   </si>
   <si>
+    <t xml:space="preserve">The boy untied his sister […]</t>
+  </si>
+  <si>
     <t xml:space="preserve">XIXK11. Object received the same was as magical agent (See F)</t>
   </si>
   <si>
-    <t xml:space="preserve">XX. Return</t>
+    <t xml:space="preserve">XX. ↓ Return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soon they were back in the field, eating the last of the grain that was left. </t>
   </si>
   <si>
     <t xml:space="preserve">XXIPr. Pursuit, chase</t>
   </si>
   <si>
+    <t xml:space="preserve">[…] and then led her back to their father’s new place. </t>
+  </si>
+  <si>
     <t xml:space="preserve">XXIPr1. Pursuer flies after the hero</t>
   </si>
   <si>
@@ -644,6 +633,9 @@
     <t xml:space="preserve">XXXIW. Wedding</t>
   </si>
   <si>
+    <t xml:space="preserve">She now owned her husband’s cattle and because of this there were many men waiting to marry her. </t>
+  </si>
+  <si>
     <t xml:space="preserve">XXXIW1. Hero marries without throne</t>
   </si>
   <si>
@@ -660,9 +652,6 @@
   </si>
   <si>
     <t xml:space="preserve">XXXIw2. Married hero loses his wife, resumed marriage as result of quest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dramatis Personae</t>
   </si>
 </sst>
 </file>
@@ -677,6 +666,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -697,15 +687,20 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3333"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -754,7 +749,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -763,7 +758,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -771,7 +766,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -788,7 +787,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFF3333"/>
       <rgbColor rgb="FF00CC33"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -852,911 +851,1009 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A180"/>
+  <dimension ref="A1:C179"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A184" activeCellId="0" sqref="A184"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A164" activeCellId="0" sqref="A164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.65"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="93.4030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="63.9132653061225"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="B5" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="B6" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="s">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="s">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="s">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="s">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="s">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="s">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="s">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="s">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="s">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="s">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="s">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="s">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="s">
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="s">
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="s">
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="s">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="s">
+      <c r="B126" s="5" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="s">
+      <c r="C126" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="s">
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="s">
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="s">
+      <c r="B128" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="s">
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="s">
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="s">
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
-        <v>178</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1783,8 +1880,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1812,8 +1908,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/StoryBreakdown.xlsx
+++ b/StoryBreakdown.xlsx
@@ -22,59 +22,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
   <si>
-    <t xml:space="preserve">Guinea_Fowl_Child_COW1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A_Girl_Who_Lived_In_A_Cave_COW2</t>
-  </si>
-  <si>
     <t xml:space="preserve">ATU Class</t>
   </si>
   <si>
-    <t xml:space="preserve">150-199 Wild Animals and Humans </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 850-999 REALISTIC TALES</t>
-  </si>
-  <si>
     <t xml:space="preserve">Origin</t>
   </si>
   <si>
-    <t xml:space="preserve">Ndebele</t>
-  </si>
-  <si>
     <t xml:space="preserve">Key</t>
   </si>
   <si>
-    <t xml:space="preserve">GFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGW</t>
-  </si>
-  <si>
     <t xml:space="preserve">Squence</t>
   </si>
   <si>
-    <t xml:space="preserve">ßAC↑HIK↓W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">βγδε1ζ1η3θA17B7HI5K10↓</t>
-  </si>
-  <si>
     <t xml:space="preserve">Iβ. Absentation</t>
   </si>
   <si>
-    <t xml:space="preserve">Pitipiti’s husband married another wife. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The girl could not believe that the family would be leaving the place where they had lived for so long […]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Iβ1. Absention of elders</t>
   </si>
   <si>
@@ -90,9 +57,6 @@
     <t xml:space="preserve">IIy1. Interdiction</t>
   </si>
   <si>
-    <t xml:space="preserve">The girl’s mother pleaded with her to go, […]</t>
-  </si>
-  <si>
     <t xml:space="preserve">IIy2. Order or Command</t>
   </si>
   <si>
@@ -102,9 +66,6 @@
     <t xml:space="preserve">IIIδ1. Interdiction Violated</t>
   </si>
   <si>
-    <t xml:space="preserve">[…] but the girl refused. </t>
-  </si>
-  <si>
     <t xml:space="preserve">IIIδ2. Order or command carried out</t>
   </si>
   <si>
@@ -114,9 +75,6 @@
     <t xml:space="preserve">IVε1. Reconnaissance by the villain to obtain information about the hero</t>
   </si>
   <si>
-    <t xml:space="preserve">As he did so, he had a strange feeling – as if there was somebody watching him. </t>
-  </si>
-  <si>
     <t xml:space="preserve">IVε2. Reconnaissance by the hero to obtain information about the villain</t>
   </si>
   <si>
@@ -129,9 +87,6 @@
     <t xml:space="preserve">Vζ1. Villain receives information about the hero</t>
   </si>
   <si>
-    <t xml:space="preserve">Now he had heard the boy singing the special song to his sister in the cave and he had remembered the song. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Vζ2. Hero receives information about the villain</t>
   </si>
   <si>
@@ -150,9 +105,6 @@
     <t xml:space="preserve">VIη3. Deception or coercion</t>
   </si>
   <si>
-    <t xml:space="preserve">Then, when the stones where red hot, he put them in his mouth and let them lie against that part of his throat that made the sound. […] The stones had done what he had hope they would do and his voice was now as soft as the boy’s- </t>
-  </si>
-  <si>
     <t xml:space="preserve">VIIθ. Complicity</t>
   </si>
   <si>
@@ -165,15 +117,9 @@
     <t xml:space="preserve">VIIλ. Preliminary misfortune caused by a deceitful agreement</t>
   </si>
   <si>
-    <t xml:space="preserve">“I am coming my brother,” the girl sang out. “The rock will move back and let you in.” </t>
-  </si>
-  <si>
     <t xml:space="preserve">VIIIA. Villainy</t>
   </si>
   <si>
-    <t xml:space="preserve">She would pass by Pitipiti’s fields and jeer at her, asking her why she grew crops if she had no mouths to feed.</t>
-  </si>
-  <si>
     <t xml:space="preserve">VIIIA1. Abduction</t>
   </si>
   <si>
@@ -231,9 +177,6 @@
     <t xml:space="preserve">VIIIA17. Villain makes a threat of cannibalism</t>
   </si>
   <si>
-    <t xml:space="preserve">The cannibal, though, was too quick and had seized her before she could seal off the cave mouth.</t>
-  </si>
-  <si>
     <t xml:space="preserve">VIIIA17a. Cannibalism among relatives</t>
   </si>
   <si>
@@ -288,21 +231,12 @@
     <t xml:space="preserve">IXB7. A lament is sung</t>
   </si>
   <si>
-    <t xml:space="preserve">Now he was hiding in the grass, listening to the sad song of his sister. </t>
-  </si>
-  <si>
     <t xml:space="preserve">X. C Beginning counteration</t>
   </si>
   <si>
-    <t xml:space="preserve">He was not going to have his mother insulted in this way</t>
-  </si>
-  <si>
     <t xml:space="preserve">XI. ↑ Departure</t>
   </si>
   <si>
-    <t xml:space="preserve">[…] and the following day he arose early and flew to the highest tree that overlooked the fields of the new wife. </t>
-  </si>
-  <si>
     <t xml:space="preserve">XIID. The first function of the donor</t>
   </si>
   <si>
@@ -426,12 +360,6 @@
     <t xml:space="preserve">XVIH. Struggle</t>
   </si>
   <si>
-    <t xml:space="preserve">Shouting with anger, she ran out into the fields and killed Pitipiti’s guinea fowl and his friends. Then she took them back to her hut, plucked out her feathers, and began to cook them. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When he saw the cannibal bending over his fire, the boy rushed forward and pushed him into the flames. </t>
-  </si>
-  <si>
     <t xml:space="preserve">XVIH1. They fight in an open field</t>
   </si>
   <si>
@@ -474,21 +402,12 @@
     <t xml:space="preserve">XVIII I5. He is killed without a preliminary fight</t>
   </si>
   <si>
-    <t xml:space="preserve">This, of course, frightened the couple and they immediately seized long knives and stabbed at their stomachs to stop the noise.  As the knives pierced their skins, bright blood flowed freely and they fell to the ground. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The many skins which the cannibal was wearing soon caught fire and he ran wildly away, letting out strange cries as he ran.</t>
-  </si>
-  <si>
     <t xml:space="preserve">XVIII I6. He is banished directly</t>
   </si>
   <si>
     <t xml:space="preserve">XIX K. Liquidation of misfortune or lack</t>
   </si>
   <si>
-    <t xml:space="preserve">As they fell, from out of the wounds came the guinea fowl and his friends, crackling with joy at their freedom. </t>
-  </si>
-  <si>
     <t xml:space="preserve">XIXK1. Object is seized by force or cleverness</t>
   </si>
   <si>
@@ -519,24 +438,15 @@
     <t xml:space="preserve">XIXK10. A captive is freed</t>
   </si>
   <si>
-    <t xml:space="preserve">The boy untied his sister […]</t>
-  </si>
-  <si>
     <t xml:space="preserve">XIXK11. Object received the same was as magical agent (See F)</t>
   </si>
   <si>
     <t xml:space="preserve">XX. ↓ Return</t>
   </si>
   <si>
-    <t xml:space="preserve">Soon they were back in the field, eating the last of the grain that was left. </t>
-  </si>
-  <si>
     <t xml:space="preserve">XXIPr. Pursuit, chase</t>
   </si>
   <si>
-    <t xml:space="preserve">[…] and then led her back to their father’s new place. </t>
-  </si>
-  <si>
     <t xml:space="preserve">XXIPr1. Pursuer flies after the hero</t>
   </si>
   <si>
@@ -631,9 +541,6 @@
   </si>
   <si>
     <t xml:space="preserve">XXXIW. Wedding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">She now owned her husband’s cattle and because of this there were many men waiting to marry her. </t>
   </si>
   <si>
     <t xml:space="preserve">XXXIW1. Hero marries without throne</t>
@@ -749,7 +656,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -758,7 +665,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -771,6 +678,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -853,8 +764,8 @@
   </sheetPr>
   <dimension ref="A1:C179"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A164" activeCellId="0" sqref="A164"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -869,991 +780,900 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>90</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B70" s="5"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>151</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B126" s="5"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>154</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B128" s="5"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="3" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C138" s="0" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="B140" s="0" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>170</v>
+      <c r="A141" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="3" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="3" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="3" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="3" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="3" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="3" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="3" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="3" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="3" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="3" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="3" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="3" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="B173" s="0" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="3" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="3" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="3" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="3" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="3" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/StoryBreakdown.xlsx
+++ b/StoryBreakdown.xlsx
@@ -162,7 +162,7 @@
     <t xml:space="preserve">VIIIA13. Villain orders someone to be murdered</t>
   </si>
   <si>
-    <t xml:space="preserve">VIIIA14. Villain orders someone to be murdered</t>
+    <t xml:space="preserve">VIIIA14. Villain murders someone</t>
   </si>
   <si>
     <t xml:space="preserve">VIIIA15. Villain imprisons or detains someone</t>
@@ -225,7 +225,7 @@
     <t xml:space="preserve">IXB5. Banished hero transported away from home</t>
   </si>
   <si>
-    <t xml:space="preserve">IXB6. Banished hero transported away from home</t>
+    <t xml:space="preserve">IXB6. Hero condemned to death and secretly freed</t>
   </si>
   <si>
     <t xml:space="preserve">IXB7. A lament is sung</t>
@@ -568,7 +568,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -589,11 +589,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -656,7 +651,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -674,10 +669,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -764,16 +755,15 @@
   </sheetPr>
   <dimension ref="A1:C179"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="63.9132653061225"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="63.1785714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1482,7 +1472,7 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="6" t="s">
+      <c r="A141" s="5" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1699,9 +1689,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -1727,9 +1714,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
